--- a/Bond-Films.xlsx
+++ b/Bond-Films.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdmoo\Desktop\Microsoft Suite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ms-suite-portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80B6F43-1D9C-46AA-88DF-4E0726285C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FAFCFB-B41D-4670-9E84-7EE461655E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{73FB57DB-2AF3-4633-AD92-B5E5B205DDCB}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="64">
   <si>
     <t>Title</t>
   </si>
@@ -232,22 +232,10 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Daniel Craig Total</t>
-  </si>
-  <si>
     <t>George Lazenby Total</t>
   </si>
   <si>
-    <t>Pierce Brosnan Total</t>
-  </si>
-  <si>
     <t>Roger Moore Total</t>
-  </si>
-  <si>
-    <t>Sean Connery Total</t>
-  </si>
-  <si>
-    <t>Timothy Dalton Total</t>
   </si>
 </sst>
 </file>
@@ -297,7 +285,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -312,6 +300,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -325,17 +318,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3525,8 +3507,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{408F618F-15F6-47B3-97FE-04C050C2C383}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A2:C34" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{408F618F-15F6-47B3-97FE-04C050C2C383}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A2:C17" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending">
       <items count="26">
@@ -3570,12 +3552,12 @@
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
       <items count="7">
-        <item x="5"/>
+        <item sd="0" x="5"/>
         <item x="1"/>
-        <item x="4"/>
+        <item sd="0" x="4"/>
         <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3587,24 +3569,8 @@
     <field x="2"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="32">
+  <rowItems count="15">
     <i>
-      <x/>
-      <x v="17"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="15"/>
-    </i>
-    <i r="1">
-      <x v="16"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="default">
       <x/>
     </i>
     <i>
@@ -3615,19 +3581,6 @@
       <x v="1"/>
     </i>
     <i>
-      <x v="2"/>
-      <x v="21"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="23"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
       <x v="2"/>
     </i>
     <i>
@@ -3657,34 +3610,8 @@
     </i>
     <i>
       <x v="4"/>
-      <x v="24"/>
-    </i>
-    <i r="1">
-      <x v="22"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i t="default">
-      <x v="4"/>
     </i>
     <i>
-      <x v="5"/>
-      <x v="18"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i t="default">
       <x v="5"/>
     </i>
     <i t="grand">
@@ -4009,7 +3936,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4024,32 +3951,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="14"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4736,24 +4659,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13B6A3C-BBE4-49C9-BA66-00CC3353D9EE}">
-  <dimension ref="A2:C34"/>
+  <dimension ref="A2:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
@@ -4764,273 +4687,125 @@
       <c r="A3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="12">
-        <v>305565785.09921628</v>
+      <c r="C3" s="8">
+        <v>1315660420.7362387</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="12">
-        <v>297540000</v>
+        <v>13</v>
+      </c>
+      <c r="C4" s="8">
+        <v>55811673.51939714</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="12">
-        <v>271807996.28834611</v>
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="8">
+        <v>55811673.51939714</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="12">
-        <v>223029575.91529548</v>
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="8">
+        <v>783867838.70931542</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
       <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="12">
-        <v>217717063.43338084</v>
+        <v>21</v>
+      </c>
+      <c r="C7" s="8">
+        <v>137039767.41877106</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1315660420.7362387</v>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="8">
+        <v>90131295.303332731</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
       <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="12">
-        <v>55811673.51939714</v>
+        <v>25</v>
+      </c>
+      <c r="C9" s="8">
+        <v>81582409.488799661</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="12">
-        <v>55811673.51939714</v>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="8">
+        <v>80791856.361074924</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
       <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="12">
-        <v>237124497.99982083</v>
+        <v>20</v>
+      </c>
+      <c r="C11" s="8">
+        <v>67601737.823644876</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="12">
-        <v>230975542.16576779</v>
+        <v>17</v>
+      </c>
+      <c r="C12" s="8">
+        <v>46134149.959493265</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="12">
-        <v>200563279.16887328</v>
+        <v>19</v>
+      </c>
+      <c r="C13" s="8">
+        <v>41547325.251705028</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="12">
-        <v>115204519.37485352</v>
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="8">
+        <v>544828541.60682154</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="12">
-        <v>783867838.70931542</v>
+        <v>5</v>
+      </c>
+      <c r="C15" s="8">
+        <v>263529649.86072925</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="12">
-        <v>137039767.41877106</v>
+        <v>27</v>
+      </c>
+      <c r="C16" s="8">
+        <v>187975690.75029993</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="12">
-        <v>90131295.303332731</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="12">
-        <v>81582409.488799661</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="12">
-        <v>80791856.361074924</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="12">
-        <v>67601737.823644876</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="12">
-        <v>46134149.959493265</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="12">
-        <v>41547325.251705028</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="12">
-        <v>544828541.60682154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="12">
-        <v>90235625.843365893</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="12">
-        <v>63170277.165883206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="12">
-        <v>52021761.600513197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="12">
-        <v>28317934.688935552</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="12">
-        <v>19125933.088907074</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="12">
-        <v>10658117.473124357</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="12">
-        <v>263529649.86072928</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="12">
-        <v>103029664.62491933</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="12">
-        <v>84946026.125380591</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="12">
-        <v>187975690.75029993</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A17" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C17" s="8">
         <v>3151673815.1828017</v>
       </c>
     </row>
@@ -5044,7 +4819,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5057,12 +4832,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5525,12 +5300,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5888,32 +5663,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="9" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="4" t="s">
         <v>48</v>
       </c>
@@ -5923,7 +5698,7 @@
       <c r="G2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -6684,7 +6459,7 @@
   <dimension ref="A1:C124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Bond-Films.xlsx
+++ b/Bond-Films.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ms-suite-portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FAFCFB-B41D-4670-9E84-7EE461655E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D403893-D865-4C9A-BFED-BF83DE3696B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{73FB57DB-2AF3-4633-AD92-B5E5B205DDCB}"/>
   </bookViews>
@@ -3936,7 +3936,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4662,7 +4662,7 @@
   <dimension ref="A2:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
